--- a/Migración/25.3.xlsx
+++ b/Migración/25.3.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Migración Consolidada DI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70DFCC7-5D14-4E3B-A315-698A7741D8B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70DFCC7-5D14-4E3B-A315-698A7741D8B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Solicitantes y Refugiados" sheetId="2" r:id="rId1"/>
+    <sheet name="Solicitantes_y_Refugiados" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DatosExternos_1" localSheetId="0" hidden="1">'Solicitantes y Refugiados'!$A$1:$P$167</definedName>
+    <definedName name="DatosExternos_1" localSheetId="0" hidden="1">Solicitantes_y_Refugiados!$A$1:$P$167</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -44,425 +44,425 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="138">
   <si>
+    <t>ID_SEXO</t>
+  </si>
+  <si>
     <t>SEXO</t>
   </si>
   <si>
+    <t>CODIGO_ISO</t>
+  </si>
+  <si>
     <t>PAÍS_DE_NACIONALIDAD</t>
   </si>
   <si>
+    <t>ESTADO</t>
+  </si>
+  <si>
+    <t>AÑO 2010</t>
+  </si>
+  <si>
+    <t>AÑO 2011</t>
+  </si>
+  <si>
+    <t>AÑO 2012</t>
+  </si>
+  <si>
+    <t>AÑO 2013</t>
+  </si>
+  <si>
+    <t>AÑO 2014</t>
+  </si>
+  <si>
+    <t>AÑO 2015</t>
+  </si>
+  <si>
+    <t>AÑO 2016</t>
+  </si>
+  <si>
+    <t>AÑO 2017</t>
+  </si>
+  <si>
+    <t>AÑO 2018</t>
+  </si>
+  <si>
+    <t>AÑO 2019</t>
+  </si>
+  <si>
+    <t>AÑO 2020</t>
+  </si>
+  <si>
     <t>Femenino</t>
   </si>
   <si>
+    <t>AFG</t>
+  </si>
+  <si>
+    <t>Afganistán</t>
+  </si>
+  <si>
+    <t>Refugiado</t>
+  </si>
+  <si>
+    <t>Solicitante Refugio</t>
+  </si>
+  <si>
+    <t>AGO</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>ALB</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>ARG</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>ARM</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>BGD</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>BLR</t>
+  </si>
+  <si>
+    <t>República De Bielorrusia</t>
+  </si>
+  <si>
+    <t>BOL</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>BRA</t>
+  </si>
+  <si>
+    <t>Brasil</t>
+  </si>
+  <si>
+    <t>CHL</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>CMR</t>
+  </si>
+  <si>
+    <t>Camerún</t>
+  </si>
+  <si>
+    <t>COD</t>
+  </si>
+  <si>
+    <t>República de Congo</t>
+  </si>
+  <si>
+    <t>COL</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>CRI</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>CUB</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t>República Dominicana</t>
+  </si>
+  <si>
+    <t>DZA</t>
+  </si>
+  <si>
+    <t>Argelia</t>
+  </si>
+  <si>
+    <t>ECU</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>EGY</t>
+  </si>
+  <si>
+    <t>Egipto</t>
+  </si>
+  <si>
+    <t>ESP</t>
+  </si>
+  <si>
+    <t>España</t>
+  </si>
+  <si>
+    <t>GHA</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>GTM</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>HND</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>HTI</t>
+  </si>
+  <si>
+    <t>Haití</t>
+  </si>
+  <si>
+    <t>IRN</t>
+  </si>
+  <si>
+    <t>Irán</t>
+  </si>
+  <si>
+    <t>IRQ</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>ISR</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>ITA</t>
+  </si>
+  <si>
+    <t>Italia</t>
+  </si>
+  <si>
+    <t>JAM</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>JOR</t>
+  </si>
+  <si>
+    <t>Jordania</t>
+  </si>
+  <si>
+    <t>KEN</t>
+  </si>
+  <si>
+    <t>Kenia</t>
+  </si>
+  <si>
+    <t>LBN</t>
+  </si>
+  <si>
+    <t>Líbano</t>
+  </si>
+  <si>
+    <t>LVA</t>
+  </si>
+  <si>
+    <t>Letonia</t>
+  </si>
+  <si>
+    <t>MAR</t>
+  </si>
+  <si>
+    <t>Marruecos</t>
+  </si>
+  <si>
+    <t>MEX</t>
+  </si>
+  <si>
+    <t>México</t>
+  </si>
+  <si>
+    <t>NGA</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>NIC</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>NPL</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>OMN</t>
+  </si>
+  <si>
+    <t>Omán</t>
+  </si>
+  <si>
+    <t>PAK</t>
+  </si>
+  <si>
+    <t>Pakistán</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t>Perú</t>
+  </si>
+  <si>
+    <t>POL</t>
+  </si>
+  <si>
+    <t>Polonia</t>
+  </si>
+  <si>
+    <t>PRY</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>PSE</t>
+  </si>
+  <si>
+    <t>Palestina</t>
+  </si>
+  <si>
+    <t>RUS</t>
+  </si>
+  <si>
+    <t>Rusia</t>
+  </si>
+  <si>
+    <t>SEN</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>SIN CODIGO</t>
+  </si>
+  <si>
+    <t>Apatrida</t>
+  </si>
+  <si>
+    <t>SLE</t>
+  </si>
+  <si>
+    <t>Sierra Leona</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>SOM</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>SYR</t>
+  </si>
+  <si>
+    <t>Siria</t>
+  </si>
+  <si>
+    <t>TGO</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>TUR</t>
+  </si>
+  <si>
+    <t>Turquía</t>
+  </si>
+  <si>
+    <t>UGA</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>UKR</t>
+  </si>
+  <si>
+    <t>Ucrania</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Estados Unidos</t>
+  </si>
+  <si>
+    <t>VEN</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>YEM</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>ZAF</t>
+  </si>
+  <si>
+    <t>Sudáfrica</t>
+  </si>
+  <si>
     <t>Masculino</t>
-  </si>
-  <si>
-    <t>Afganistán</t>
-  </si>
-  <si>
-    <t>Albania</t>
-  </si>
-  <si>
-    <t>Angola</t>
-  </si>
-  <si>
-    <t>Apatrida</t>
-  </si>
-  <si>
-    <t>Argelia</t>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>Armenia</t>
-  </si>
-  <si>
-    <t>Bangladesh</t>
-  </si>
-  <si>
-    <t>Bolivia</t>
-  </si>
-  <si>
-    <t>Brasil</t>
-  </si>
-  <si>
-    <t>Camerún</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>Cuba</t>
-  </si>
-  <si>
-    <t>Ecuador</t>
-  </si>
-  <si>
-    <t>Egipto</t>
-  </si>
-  <si>
-    <t>El Salvador</t>
-  </si>
-  <si>
-    <t>España</t>
-  </si>
-  <si>
-    <t>Estados Unidos</t>
-  </si>
-  <si>
-    <t>Ghana</t>
-  </si>
-  <si>
-    <t>Guatemala</t>
-  </si>
-  <si>
-    <t>Haití</t>
-  </si>
-  <si>
-    <t>Honduras</t>
-  </si>
-  <si>
-    <t>Irán</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>Italia</t>
-  </si>
-  <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
-    <t>Jordania</t>
-  </si>
-  <si>
-    <t>Kenia</t>
-  </si>
-  <si>
-    <t>Líbano</t>
-  </si>
-  <si>
-    <t>Marruecos</t>
-  </si>
-  <si>
-    <t>México</t>
-  </si>
-  <si>
-    <t>Nepal</t>
-  </si>
-  <si>
-    <t>Nicaragua</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>Omán</t>
-  </si>
-  <si>
-    <t>Pakistán</t>
-  </si>
-  <si>
-    <t>Palestina</t>
-  </si>
-  <si>
-    <t>Paraguay</t>
-  </si>
-  <si>
-    <t>Perú</t>
-  </si>
-  <si>
-    <t>Polonia</t>
-  </si>
-  <si>
-    <t>República De Bielorrusia</t>
-  </si>
-  <si>
-    <t>República de Congo</t>
-  </si>
-  <si>
-    <t>República Dominicana</t>
-  </si>
-  <si>
-    <t>Rusia</t>
-  </si>
-  <si>
-    <t>Senegal</t>
-  </si>
-  <si>
-    <t>Sierra Leona</t>
-  </si>
-  <si>
-    <t>Siria</t>
-  </si>
-  <si>
-    <t>Togo</t>
-  </si>
-  <si>
-    <t>Turquía</t>
-  </si>
-  <si>
-    <t>Ucrania</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>Venezuela</t>
-  </si>
-  <si>
-    <t>Yemen</t>
-  </si>
-  <si>
-    <t>AFG</t>
-  </si>
-  <si>
-    <t>ALB</t>
-  </si>
-  <si>
-    <t>AGO</t>
-  </si>
-  <si>
-    <t>DZA</t>
-  </si>
-  <si>
-    <t>ARG</t>
-  </si>
-  <si>
-    <t>ARM</t>
-  </si>
-  <si>
-    <t>BGD</t>
-  </si>
-  <si>
-    <t>BLR</t>
-  </si>
-  <si>
-    <t>BOL</t>
-  </si>
-  <si>
-    <t>BRA</t>
-  </si>
-  <si>
-    <t>CMR</t>
-  </si>
-  <si>
-    <t>CHL</t>
-  </si>
-  <si>
-    <t>COL</t>
-  </si>
-  <si>
-    <t>CUB</t>
-  </si>
-  <si>
-    <t>ECU</t>
-  </si>
-  <si>
-    <t>EGY</t>
-  </si>
-  <si>
-    <t>SLV</t>
-  </si>
-  <si>
-    <t>ESP</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>GHA</t>
-  </si>
-  <si>
-    <t>GTM</t>
-  </si>
-  <si>
-    <t>HTI</t>
-  </si>
-  <si>
-    <t>HND</t>
-  </si>
-  <si>
-    <t>IRQ</t>
-  </si>
-  <si>
-    <t>IRN</t>
-  </si>
-  <si>
-    <t>ISR</t>
-  </si>
-  <si>
-    <t>ITA</t>
-  </si>
-  <si>
-    <t>JAM</t>
-  </si>
-  <si>
-    <t>JOR</t>
-  </si>
-  <si>
-    <t>KEN</t>
-  </si>
-  <si>
-    <t>LBN</t>
-  </si>
-  <si>
-    <t>MAR</t>
-  </si>
-  <si>
-    <t>MEX</t>
-  </si>
-  <si>
-    <t>NPL</t>
-  </si>
-  <si>
-    <t>NIC</t>
-  </si>
-  <si>
-    <t>NGA</t>
-  </si>
-  <si>
-    <t>OMN</t>
-  </si>
-  <si>
-    <t>PAK</t>
-  </si>
-  <si>
-    <t>PSE</t>
-  </si>
-  <si>
-    <t>PRY</t>
-  </si>
-  <si>
-    <t>PER</t>
-  </si>
-  <si>
-    <t>POL</t>
-  </si>
-  <si>
-    <t>COD</t>
-  </si>
-  <si>
-    <t>DOM</t>
-  </si>
-  <si>
-    <t>RUS</t>
-  </si>
-  <si>
-    <t>SEN</t>
-  </si>
-  <si>
-    <t>SLE</t>
-  </si>
-  <si>
-    <t>SYR</t>
-  </si>
-  <si>
-    <t>Sudáfrica</t>
-  </si>
-  <si>
-    <t>ZAF</t>
-  </si>
-  <si>
-    <t>TGO</t>
-  </si>
-  <si>
-    <t>TUR</t>
-  </si>
-  <si>
-    <t>UKR</t>
-  </si>
-  <si>
-    <t>UGA</t>
-  </si>
-  <si>
-    <t>VEN</t>
-  </si>
-  <si>
-    <t>YEM</t>
-  </si>
-  <si>
-    <t>SIN CODIGO</t>
-  </si>
-  <si>
-    <t>ESTADO</t>
-  </si>
-  <si>
-    <t>Solicitante Refugio</t>
-  </si>
-  <si>
-    <t>Refugiado</t>
-  </si>
-  <si>
-    <t>ID_SEXO</t>
-  </si>
-  <si>
-    <t>CODIGO_ISO</t>
-  </si>
-  <si>
-    <t>CRI</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
-  </si>
-  <si>
-    <t>LVA</t>
-  </si>
-  <si>
-    <t>Letonia</t>
-  </si>
-  <si>
-    <t>SOM</t>
-  </si>
-  <si>
-    <t>Somalia</t>
-  </si>
-  <si>
-    <t>AÑO 2010</t>
-  </si>
-  <si>
-    <t>AÑO 2011</t>
-  </si>
-  <si>
-    <t>AÑO 2012</t>
-  </si>
-  <si>
-    <t>AÑO 2013</t>
-  </si>
-  <si>
-    <t>AÑO 2014</t>
-  </si>
-  <si>
-    <t>AÑO 2015</t>
-  </si>
-  <si>
-    <t>AÑO 2016</t>
-  </si>
-  <si>
-    <t>AÑO 2017</t>
-  </si>
-  <si>
-    <t>AÑO 2018</t>
-  </si>
-  <si>
-    <t>AÑO 2019</t>
-  </si>
-  <si>
-    <t>AÑO 2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -574,7 +574,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -876,81 +876,81 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="16" width="10.21875" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="16" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>116</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>127</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>128</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>129</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>131</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>133</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>136</v>
+        <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -986,21 +986,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1036,21 +1036,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1086,21 +1086,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1136,21 +1136,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1186,21 +1186,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1236,21 +1236,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1286,21 +1286,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1336,21 +1336,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1386,21 +1386,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1436,21 +1436,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16">
       <c r="A12">
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1486,21 +1486,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -1536,21 +1536,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16">
       <c r="A14">
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1586,21 +1586,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1636,21 +1636,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16">
       <c r="A16">
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1686,21 +1686,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16">
       <c r="A17">
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1736,21 +1736,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16">
       <c r="A18">
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="F18">
         <v>8</v>
@@ -1786,21 +1786,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16">
       <c r="A19">
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F19">
         <v>78</v>
@@ -1836,21 +1836,21 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16">
       <c r="A20">
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>121</v>
+        <v>45</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>122</v>
+        <v>46</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1886,21 +1886,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16">
       <c r="A21">
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1936,21 +1936,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16">
       <c r="A22">
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F22">
         <v>2</v>
@@ -1986,21 +1986,21 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16">
       <c r="A23">
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -2036,21 +2036,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16">
       <c r="A24">
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -2086,21 +2086,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16">
       <c r="A25">
         <v>1</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -2136,21 +2136,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16">
       <c r="A26">
         <v>1</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -2186,22 +2186,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16">
       <c r="A27">
         <v>1</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="F27">
         <v>0</v>
       </c>
@@ -2236,21 +2236,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16">
       <c r="A28">
         <v>1</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -2286,21 +2286,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16">
       <c r="A29">
         <v>1</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -2336,21 +2336,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16">
       <c r="A30">
         <v>1</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -2386,21 +2386,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16">
       <c r="A31">
         <v>1</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -2436,21 +2436,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16">
       <c r="A32">
         <v>1</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -2486,21 +2486,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16">
       <c r="A33">
         <v>1</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -2536,21 +2536,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16">
       <c r="A34">
         <v>1</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -2586,21 +2586,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16">
       <c r="A35">
         <v>1</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -2636,21 +2636,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16">
       <c r="A36">
         <v>1</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -2686,21 +2686,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16">
       <c r="A37">
         <v>1</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -2736,21 +2736,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16">
       <c r="A38">
         <v>1</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -2786,21 +2786,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16">
       <c r="A39">
         <v>1</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -2836,21 +2836,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16">
       <c r="A40">
         <v>1</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -2886,21 +2886,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16">
       <c r="A41">
         <v>1</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -2936,571 +2936,571 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16">
       <c r="A42">
         <v>1</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
-        <v>0</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>1</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C43" s="1" t="s">
+      <c r="E48" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-      <c r="N43">
-        <v>0</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>1</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C44" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <v>1</v>
-      </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44">
-        <v>0</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>1</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>1</v>
-      </c>
-      <c r="L45">
-        <v>1</v>
-      </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="N45">
-        <v>0</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>1</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C46" s="1" t="s">
+      <c r="E49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46">
-        <v>1</v>
-      </c>
-      <c r="N46">
-        <v>0</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>1</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="N47">
-        <v>0</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>1</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C48" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="N48">
-        <v>0</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>1</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C49" s="1" t="s">
+      <c r="E50" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>1</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <v>1</v>
-      </c>
-      <c r="M49">
-        <v>1</v>
-      </c>
-      <c r="N49">
-        <v>0</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>1</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C50" s="1" t="s">
+      <c r="D52" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>2</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50">
-        <v>0</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>1</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51">
-        <v>0</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>1</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>1</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52">
-        <v>0</v>
-      </c>
-      <c r="O52">
-        <v>2</v>
-      </c>
-      <c r="P52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>1</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="E53" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -3536,21 +3536,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16">
       <c r="A54">
         <v>1</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>95</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -3586,21 +3586,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16">
       <c r="A55">
         <v>1</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -3636,21 +3636,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16">
       <c r="A56">
         <v>1</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>99</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -3686,21 +3686,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16">
       <c r="A57">
         <v>1</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>99</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F57">
         <v>2</v>
@@ -3736,21 +3736,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16">
       <c r="A58">
         <v>1</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -3786,21 +3786,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16">
       <c r="A59">
         <v>1</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -3836,21 +3836,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16">
       <c r="A60">
         <v>1</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -3886,21 +3886,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16">
       <c r="A61">
         <v>1</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -3936,21 +3936,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16">
       <c r="A62">
         <v>1</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -3986,21 +3986,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16">
       <c r="A63">
         <v>1</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -4036,21 +4036,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16">
       <c r="A64">
         <v>1</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -4086,21 +4086,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16">
       <c r="A65">
         <v>1</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -4136,121 +4136,121 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16">
       <c r="A66">
         <v>1</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C66" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <v>2</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
-      <c r="K66">
-        <v>0</v>
-      </c>
-      <c r="L66">
-        <v>0</v>
-      </c>
-      <c r="M66">
-        <v>0</v>
-      </c>
-      <c r="N66">
-        <v>0</v>
-      </c>
-      <c r="O66">
-        <v>0</v>
-      </c>
-      <c r="P66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>1</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-      <c r="K67">
-        <v>0</v>
-      </c>
-      <c r="L67">
-        <v>0</v>
-      </c>
-      <c r="M67">
-        <v>1</v>
-      </c>
-      <c r="N67">
-        <v>2</v>
-      </c>
-      <c r="O67">
-        <v>0</v>
-      </c>
-      <c r="P67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>1</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="D68" s="1" t="s">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -4286,21 +4286,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16">
       <c r="A69">
         <v>1</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -4336,21 +4336,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16">
       <c r="A70">
         <v>1</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="F70">
         <v>2</v>
@@ -4386,21 +4386,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16">
       <c r="A71">
         <v>1</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -4436,21 +4436,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16">
       <c r="A72">
         <v>1</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -4486,21 +4486,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16">
       <c r="A73">
         <v>1</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -4536,21 +4536,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16">
       <c r="A74">
         <v>1</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -4586,21 +4586,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16">
       <c r="A75">
         <v>1</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -4636,21 +4636,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16">
       <c r="A76">
         <v>1</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -4686,21 +4686,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16">
       <c r="A77">
         <v>1</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -4736,21 +4736,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16">
       <c r="A78">
         <v>1</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>55</v>
+        <v>128</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -4786,21 +4786,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16">
       <c r="A79">
         <v>1</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>55</v>
+        <v>128</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -4836,21 +4836,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16">
       <c r="A80">
         <v>1</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -4886,21 +4886,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16">
       <c r="A81">
         <v>1</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>57</v>
+        <v>132</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -4936,21 +4936,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16">
       <c r="A82">
         <v>1</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>57</v>
+        <v>132</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -4986,21 +4986,21 @@
         <v>36</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16">
       <c r="A83">
         <v>1</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>58</v>
+        <v>134</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -5036,21 +5036,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16">
       <c r="A84">
         <v>1</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -5086,21 +5086,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16">
       <c r="A85">
         <v>2</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -5136,21 +5136,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16">
       <c r="A86">
         <v>2</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -5186,21 +5186,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16">
       <c r="A87">
         <v>2</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -5236,21 +5236,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16">
       <c r="A88">
         <v>2</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -5286,21 +5286,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16">
       <c r="A89">
         <v>2</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -5336,21 +5336,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16">
       <c r="A90">
         <v>2</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -5386,21 +5386,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16">
       <c r="A91">
         <v>2</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -5436,21 +5436,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16">
       <c r="A92">
         <v>2</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -5486,21 +5486,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16">
       <c r="A93">
         <v>2</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -5536,21 +5536,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16">
       <c r="A94">
         <v>2</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F94">
         <v>2</v>
@@ -5586,21 +5586,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16">
       <c r="A95">
         <v>2</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -5636,21 +5636,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16">
       <c r="A96">
         <v>2</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F96">
         <v>2</v>
@@ -5686,21 +5686,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:16">
       <c r="A97">
         <v>2</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="F97">
         <v>1</v>
@@ -5736,21 +5736,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16">
       <c r="A98">
         <v>2</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F98">
         <v>1</v>
@@ -5786,21 +5786,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16">
       <c r="A99">
         <v>2</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -5836,21 +5836,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16">
       <c r="A100">
         <v>2</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F100">
         <v>1</v>
@@ -5886,21 +5886,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16">
       <c r="A101">
         <v>2</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="F101">
         <v>5</v>
@@ -5936,21 +5936,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:16">
       <c r="A102">
         <v>2</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F102">
         <v>101</v>
@@ -5986,21 +5986,21 @@
         <v>55</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16">
       <c r="A103">
         <v>2</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>121</v>
+        <v>45</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>122</v>
+        <v>46</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -6036,21 +6036,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16">
       <c r="A104">
         <v>2</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -6086,21 +6086,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16">
       <c r="A105">
         <v>2</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F105">
         <v>10</v>
@@ -6136,21 +6136,21 @@
         <v>136</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16">
       <c r="A106">
         <v>2</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -6186,21 +6186,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16">
       <c r="A107">
         <v>2</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -6236,21 +6236,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:16">
       <c r="A108">
         <v>2</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -6286,21 +6286,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16">
       <c r="A109">
         <v>2</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -6336,22 +6336,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16">
       <c r="A110">
         <v>2</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="D110" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E110" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E110" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="F110">
         <v>0</v>
       </c>
@@ -6386,21 +6386,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16">
       <c r="A111">
         <v>2</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -6436,21 +6436,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16">
       <c r="A112">
         <v>2</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -6486,21 +6486,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16">
       <c r="A113">
         <v>2</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F113">
         <v>5</v>
@@ -6536,21 +6536,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:16">
       <c r="A114">
         <v>2</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -6586,21 +6586,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:16">
       <c r="A115">
         <v>2</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -6636,21 +6636,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:16">
       <c r="A116">
         <v>2</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -6686,21 +6686,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:16">
       <c r="A117">
         <v>2</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -6736,21 +6736,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:16">
       <c r="A118">
         <v>2</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -6786,21 +6786,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:16">
       <c r="A119">
         <v>2</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -6836,21 +6836,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:16">
       <c r="A120">
         <v>2</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -6886,21 +6886,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:16">
       <c r="A121">
         <v>2</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F121">
         <v>1</v>
@@ -6936,521 +6936,521 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:16">
       <c r="A122">
         <v>2</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="C122" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+      <c r="O122">
+        <v>0</v>
+      </c>
+      <c r="P122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16">
+      <c r="A123">
+        <v>2</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <v>0</v>
+      </c>
+      <c r="O123">
+        <v>0</v>
+      </c>
+      <c r="P123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16">
+      <c r="A124">
+        <v>2</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <v>0</v>
+      </c>
+      <c r="O124">
+        <v>0</v>
+      </c>
+      <c r="P124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16">
+      <c r="A125">
+        <v>2</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>1</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>2</v>
+      </c>
+      <c r="O125">
+        <v>0</v>
+      </c>
+      <c r="P125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16">
+      <c r="A126">
+        <v>2</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <v>1</v>
+      </c>
+      <c r="O126">
+        <v>1</v>
+      </c>
+      <c r="P126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16">
+      <c r="A127">
+        <v>2</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127">
+        <v>0</v>
+      </c>
+      <c r="O127">
+        <v>0</v>
+      </c>
+      <c r="P127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16">
+      <c r="A128">
+        <v>2</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128">
+        <v>0</v>
+      </c>
+      <c r="N128">
+        <v>0</v>
+      </c>
+      <c r="O128">
+        <v>0</v>
+      </c>
+      <c r="P128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16">
+      <c r="A129">
+        <v>2</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129">
+        <v>1</v>
+      </c>
+      <c r="N129">
+        <v>0</v>
+      </c>
+      <c r="O129">
+        <v>0</v>
+      </c>
+      <c r="P129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16">
+      <c r="A130">
+        <v>2</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D130" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D122" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F122">
-        <v>0</v>
-      </c>
-      <c r="G122">
-        <v>0</v>
-      </c>
-      <c r="H122">
-        <v>0</v>
-      </c>
-      <c r="I122">
-        <v>0</v>
-      </c>
-      <c r="J122">
-        <v>0</v>
-      </c>
-      <c r="K122">
-        <v>0</v>
-      </c>
-      <c r="L122">
-        <v>0</v>
-      </c>
-      <c r="M122">
-        <v>0</v>
-      </c>
-      <c r="N122">
-        <v>0</v>
-      </c>
-      <c r="O122">
-        <v>0</v>
-      </c>
-      <c r="P122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A123">
-        <v>2</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F123">
-        <v>0</v>
-      </c>
-      <c r="G123">
-        <v>0</v>
-      </c>
-      <c r="H123">
-        <v>0</v>
-      </c>
-      <c r="I123">
-        <v>0</v>
-      </c>
-      <c r="J123">
-        <v>1</v>
-      </c>
-      <c r="K123">
-        <v>0</v>
-      </c>
-      <c r="L123">
-        <v>0</v>
-      </c>
-      <c r="M123">
-        <v>0</v>
-      </c>
-      <c r="N123">
-        <v>0</v>
-      </c>
-      <c r="O123">
-        <v>0</v>
-      </c>
-      <c r="P123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A124">
-        <v>2</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C124" s="1" t="s">
+      <c r="E130" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130">
+        <v>0</v>
+      </c>
+      <c r="O130">
+        <v>0</v>
+      </c>
+      <c r="P130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16">
+      <c r="A131">
+        <v>2</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C131" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D124" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F124">
-        <v>0</v>
-      </c>
-      <c r="G124">
-        <v>0</v>
-      </c>
-      <c r="H124">
-        <v>0</v>
-      </c>
-      <c r="I124">
-        <v>0</v>
-      </c>
-      <c r="J124">
-        <v>0</v>
-      </c>
-      <c r="K124">
-        <v>0</v>
-      </c>
-      <c r="L124">
-        <v>0</v>
-      </c>
-      <c r="M124">
-        <v>0</v>
-      </c>
-      <c r="N124">
-        <v>0</v>
-      </c>
-      <c r="O124">
-        <v>0</v>
-      </c>
-      <c r="P124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A125">
-        <v>2</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C125" s="1" t="s">
+      <c r="D131" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D125" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F125">
-        <v>0</v>
-      </c>
-      <c r="G125">
-        <v>0</v>
-      </c>
-      <c r="H125">
-        <v>0</v>
-      </c>
-      <c r="I125">
-        <v>0</v>
-      </c>
-      <c r="J125">
-        <v>0</v>
-      </c>
-      <c r="K125">
-        <v>0</v>
-      </c>
-      <c r="L125">
-        <v>1</v>
-      </c>
-      <c r="M125">
-        <v>0</v>
-      </c>
-      <c r="N125">
-        <v>2</v>
-      </c>
-      <c r="O125">
-        <v>0</v>
-      </c>
-      <c r="P125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A126">
-        <v>2</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C126" s="1" t="s">
+      <c r="E131" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>1</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131">
+        <v>2</v>
+      </c>
+      <c r="N131">
+        <v>0</v>
+      </c>
+      <c r="O131">
+        <v>0</v>
+      </c>
+      <c r="P131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16">
+      <c r="A132">
+        <v>2</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C132" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D126" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F126">
-        <v>1</v>
-      </c>
-      <c r="G126">
-        <v>0</v>
-      </c>
-      <c r="H126">
-        <v>0</v>
-      </c>
-      <c r="I126">
-        <v>0</v>
-      </c>
-      <c r="J126">
-        <v>0</v>
-      </c>
-      <c r="K126">
-        <v>0</v>
-      </c>
-      <c r="L126">
-        <v>0</v>
-      </c>
-      <c r="M126">
-        <v>0</v>
-      </c>
-      <c r="N126">
-        <v>1</v>
-      </c>
-      <c r="O126">
-        <v>1</v>
-      </c>
-      <c r="P126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A127">
-        <v>2</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C127" s="1" t="s">
+      <c r="D132" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D127" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F127">
-        <v>0</v>
-      </c>
-      <c r="G127">
-        <v>0</v>
-      </c>
-      <c r="H127">
-        <v>0</v>
-      </c>
-      <c r="I127">
-        <v>0</v>
-      </c>
-      <c r="J127">
-        <v>0</v>
-      </c>
-      <c r="K127">
-        <v>0</v>
-      </c>
-      <c r="L127">
-        <v>0</v>
-      </c>
-      <c r="M127">
-        <v>0</v>
-      </c>
-      <c r="N127">
-        <v>0</v>
-      </c>
-      <c r="O127">
-        <v>0</v>
-      </c>
-      <c r="P127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A128">
-        <v>2</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F128">
-        <v>0</v>
-      </c>
-      <c r="G128">
-        <v>0</v>
-      </c>
-      <c r="H128">
-        <v>0</v>
-      </c>
-      <c r="I128">
-        <v>0</v>
-      </c>
-      <c r="J128">
-        <v>0</v>
-      </c>
-      <c r="K128">
-        <v>0</v>
-      </c>
-      <c r="L128">
-        <v>0</v>
-      </c>
-      <c r="M128">
-        <v>0</v>
-      </c>
-      <c r="N128">
-        <v>0</v>
-      </c>
-      <c r="O128">
-        <v>0</v>
-      </c>
-      <c r="P128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A129">
-        <v>2</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F129">
-        <v>0</v>
-      </c>
-      <c r="G129">
-        <v>0</v>
-      </c>
-      <c r="H129">
-        <v>0</v>
-      </c>
-      <c r="I129">
-        <v>0</v>
-      </c>
-      <c r="J129">
-        <v>0</v>
-      </c>
-      <c r="K129">
-        <v>0</v>
-      </c>
-      <c r="L129">
-        <v>0</v>
-      </c>
-      <c r="M129">
-        <v>1</v>
-      </c>
-      <c r="N129">
-        <v>0</v>
-      </c>
-      <c r="O129">
-        <v>0</v>
-      </c>
-      <c r="P129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A130">
-        <v>2</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F130">
-        <v>0</v>
-      </c>
-      <c r="G130">
-        <v>0</v>
-      </c>
-      <c r="H130">
-        <v>0</v>
-      </c>
-      <c r="I130">
-        <v>1</v>
-      </c>
-      <c r="J130">
-        <v>0</v>
-      </c>
-      <c r="K130">
-        <v>0</v>
-      </c>
-      <c r="L130">
-        <v>0</v>
-      </c>
-      <c r="M130">
-        <v>0</v>
-      </c>
-      <c r="N130">
-        <v>0</v>
-      </c>
-      <c r="O130">
-        <v>0</v>
-      </c>
-      <c r="P130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A131">
-        <v>2</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F131">
-        <v>0</v>
-      </c>
-      <c r="G131">
-        <v>1</v>
-      </c>
-      <c r="H131">
-        <v>0</v>
-      </c>
-      <c r="I131">
-        <v>0</v>
-      </c>
-      <c r="J131">
-        <v>0</v>
-      </c>
-      <c r="K131">
-        <v>0</v>
-      </c>
-      <c r="L131">
-        <v>0</v>
-      </c>
-      <c r="M131">
-        <v>2</v>
-      </c>
-      <c r="N131">
-        <v>0</v>
-      </c>
-      <c r="O131">
-        <v>0</v>
-      </c>
-      <c r="P131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A132">
-        <v>2</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="E132" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -7486,171 +7486,171 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:16">
       <c r="A133">
         <v>2</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="C133" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>1</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
+      </c>
+      <c r="N133">
+        <v>0</v>
+      </c>
+      <c r="O133">
+        <v>0</v>
+      </c>
+      <c r="P133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16">
+      <c r="A134">
+        <v>2</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <v>1</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+      <c r="M134">
+        <v>0</v>
+      </c>
+      <c r="N134">
+        <v>0</v>
+      </c>
+      <c r="O134">
+        <v>0</v>
+      </c>
+      <c r="P134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16">
+      <c r="A135">
+        <v>2</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135">
+        <v>0</v>
+      </c>
+      <c r="O135">
+        <v>2</v>
+      </c>
+      <c r="P135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16">
+      <c r="A136">
+        <v>2</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D136" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D133" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F133">
-        <v>1</v>
-      </c>
-      <c r="G133">
-        <v>0</v>
-      </c>
-      <c r="H133">
-        <v>1</v>
-      </c>
-      <c r="I133">
-        <v>0</v>
-      </c>
-      <c r="J133">
-        <v>0</v>
-      </c>
-      <c r="K133">
-        <v>0</v>
-      </c>
-      <c r="L133">
-        <v>0</v>
-      </c>
-      <c r="M133">
-        <v>0</v>
-      </c>
-      <c r="N133">
-        <v>0</v>
-      </c>
-      <c r="O133">
-        <v>0</v>
-      </c>
-      <c r="P133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A134">
-        <v>2</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F134">
-        <v>0</v>
-      </c>
-      <c r="G134">
-        <v>1</v>
-      </c>
-      <c r="H134">
-        <v>0</v>
-      </c>
-      <c r="I134">
-        <v>0</v>
-      </c>
-      <c r="J134">
-        <v>0</v>
-      </c>
-      <c r="K134">
-        <v>0</v>
-      </c>
-      <c r="L134">
-        <v>0</v>
-      </c>
-      <c r="M134">
-        <v>0</v>
-      </c>
-      <c r="N134">
-        <v>0</v>
-      </c>
-      <c r="O134">
-        <v>0</v>
-      </c>
-      <c r="P134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A135">
-        <v>2</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F135">
-        <v>0</v>
-      </c>
-      <c r="G135">
-        <v>0</v>
-      </c>
-      <c r="H135">
-        <v>0</v>
-      </c>
-      <c r="I135">
-        <v>0</v>
-      </c>
-      <c r="J135">
-        <v>0</v>
-      </c>
-      <c r="K135">
-        <v>0</v>
-      </c>
-      <c r="L135">
-        <v>0</v>
-      </c>
-      <c r="M135">
-        <v>0</v>
-      </c>
-      <c r="N135">
-        <v>0</v>
-      </c>
-      <c r="O135">
-        <v>2</v>
-      </c>
-      <c r="P135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A136">
-        <v>2</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="E136" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -7686,21 +7686,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:16">
       <c r="A137">
         <v>2</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>95</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -7736,21 +7736,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:16">
       <c r="A138">
         <v>2</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F138">
         <v>0</v>
@@ -7786,21 +7786,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:16">
       <c r="A139">
         <v>2</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>99</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="F139">
         <v>0</v>
@@ -7836,21 +7836,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:16">
       <c r="A140">
         <v>2</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>99</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F140">
         <v>4</v>
@@ -7886,21 +7886,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16">
       <c r="A141">
         <v>2</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F141">
         <v>0</v>
@@ -7936,21 +7936,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16">
       <c r="A142">
         <v>2</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F142">
         <v>0</v>
@@ -7986,21 +7986,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:16">
       <c r="A143">
         <v>2</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="F143">
         <v>0</v>
@@ -8036,21 +8036,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:16">
       <c r="A144">
         <v>2</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F144">
         <v>0</v>
@@ -8086,21 +8086,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:16">
       <c r="A145">
         <v>2</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="F145">
         <v>0</v>
@@ -8136,21 +8136,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:16">
       <c r="A146">
         <v>2</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F146">
         <v>0</v>
@@ -8186,21 +8186,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:16">
       <c r="A147">
         <v>2</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="F147">
         <v>0</v>
@@ -8236,21 +8236,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:16">
       <c r="A148">
         <v>2</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F148">
         <v>4</v>
@@ -8286,121 +8286,121 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:16">
       <c r="A149">
         <v>2</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="C149" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+      <c r="M149">
+        <v>1</v>
+      </c>
+      <c r="N149">
+        <v>0</v>
+      </c>
+      <c r="O149">
+        <v>0</v>
+      </c>
+      <c r="P149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16">
+      <c r="A150">
+        <v>2</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+      <c r="M150">
+        <v>1</v>
+      </c>
+      <c r="N150">
+        <v>2</v>
+      </c>
+      <c r="O150">
+        <v>1</v>
+      </c>
+      <c r="P150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16">
+      <c r="A151">
+        <v>2</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C151" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D149" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F149">
-        <v>0</v>
-      </c>
-      <c r="G149">
-        <v>0</v>
-      </c>
-      <c r="H149">
-        <v>0</v>
-      </c>
-      <c r="I149">
-        <v>0</v>
-      </c>
-      <c r="J149">
-        <v>0</v>
-      </c>
-      <c r="K149">
-        <v>0</v>
-      </c>
-      <c r="L149">
-        <v>0</v>
-      </c>
-      <c r="M149">
-        <v>1</v>
-      </c>
-      <c r="N149">
-        <v>0</v>
-      </c>
-      <c r="O149">
-        <v>0</v>
-      </c>
-      <c r="P149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A150">
-        <v>2</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F150">
-        <v>0</v>
-      </c>
-      <c r="G150">
-        <v>0</v>
-      </c>
-      <c r="H150">
-        <v>0</v>
-      </c>
-      <c r="I150">
-        <v>0</v>
-      </c>
-      <c r="J150">
-        <v>0</v>
-      </c>
-      <c r="K150">
-        <v>0</v>
-      </c>
-      <c r="L150">
-        <v>0</v>
-      </c>
-      <c r="M150">
-        <v>1</v>
-      </c>
-      <c r="N150">
-        <v>2</v>
-      </c>
-      <c r="O150">
-        <v>1</v>
-      </c>
-      <c r="P150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A151">
-        <v>2</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="D151" s="1" t="s">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="F151">
         <v>0</v>
@@ -8436,21 +8436,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:16">
       <c r="A152">
         <v>2</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F152">
         <v>0</v>
@@ -8486,21 +8486,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:16">
       <c r="A153">
         <v>2</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="F153">
         <v>0</v>
@@ -8536,21 +8536,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:16">
       <c r="A154">
         <v>2</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="F154">
         <v>0</v>
@@ -8586,21 +8586,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:16">
       <c r="A155">
         <v>2</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F155">
         <v>0</v>
@@ -8636,21 +8636,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:16">
       <c r="A156">
         <v>2</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="F156">
         <v>0</v>
@@ -8686,21 +8686,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:16">
       <c r="A157">
         <v>2</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F157">
         <v>0</v>
@@ -8736,21 +8736,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:16">
       <c r="A158">
         <v>2</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="F158">
         <v>0</v>
@@ -8786,21 +8786,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:16">
       <c r="A159">
         <v>2</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F159">
         <v>0</v>
@@ -8836,21 +8836,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:16">
       <c r="A160">
         <v>2</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F160">
         <v>0</v>
@@ -8886,21 +8886,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:16">
       <c r="A161">
         <v>2</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>55</v>
+        <v>128</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="F161">
         <v>0</v>
@@ -8936,21 +8936,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:16">
       <c r="A162">
         <v>2</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>55</v>
+        <v>128</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F162">
         <v>1</v>
@@ -8986,21 +8986,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:16">
       <c r="A163">
         <v>2</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F163">
         <v>0</v>
@@ -9036,21 +9036,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:16">
       <c r="A164">
         <v>2</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>57</v>
+        <v>132</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="F164">
         <v>0</v>
@@ -9086,21 +9086,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:16">
       <c r="A165">
         <v>2</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>57</v>
+        <v>132</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F165">
         <v>0</v>
@@ -9136,21 +9136,21 @@
         <v>48</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:16">
       <c r="A166">
         <v>2</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>58</v>
+        <v>134</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F166">
         <v>0</v>
@@ -9186,21 +9186,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:16">
       <c r="A167">
         <v>2</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F167">
         <v>0</v>
@@ -9248,9 +9248,5 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F83ED48A-C829-4DC6-A7CE-848F72729157}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/DataMashup"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F83ED48A-C829-4DC6-A7CE-848F72729157}"/>
 </file>
--- a/Migración/25.3.xlsx
+++ b/Migración/25.3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Migración Consolidada DI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\Tablas Madre\Migración\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70DFCC7-5D14-4E3B-A315-698A7741D8B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79A0776-618E-4A77-A69D-375F2A7736A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Solicitantes_y_Refugiados" sheetId="2" r:id="rId1"/>
@@ -18,18 +18,7 @@
   <definedNames>
     <definedName name="DatosExternos_1" localSheetId="0" hidden="1">Solicitantes_y_Refugiados!$A$1:$P$167</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -47,51 +36,9 @@
     <t>ID_SEXO</t>
   </si>
   <si>
-    <t>SEXO</t>
-  </si>
-  <si>
     <t>CODIGO_ISO</t>
   </si>
   <si>
-    <t>PAÍS_DE_NACIONALIDAD</t>
-  </si>
-  <si>
-    <t>ESTADO</t>
-  </si>
-  <si>
-    <t>AÑO 2010</t>
-  </si>
-  <si>
-    <t>AÑO 2011</t>
-  </si>
-  <si>
-    <t>AÑO 2012</t>
-  </si>
-  <si>
-    <t>AÑO 2013</t>
-  </si>
-  <si>
-    <t>AÑO 2014</t>
-  </si>
-  <si>
-    <t>AÑO 2015</t>
-  </si>
-  <si>
-    <t>AÑO 2016</t>
-  </si>
-  <si>
-    <t>AÑO 2017</t>
-  </si>
-  <si>
-    <t>AÑO 2018</t>
-  </si>
-  <si>
-    <t>AÑO 2019</t>
-  </si>
-  <si>
-    <t>AÑO 2020</t>
-  </si>
-  <si>
     <t>Femenino</t>
   </si>
   <si>
@@ -456,16 +403,64 @@
   </si>
   <si>
     <t>Masculino</t>
+  </si>
+  <si>
+    <t>Sexo</t>
+  </si>
+  <si>
+    <t>País de Nacionalidad</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Año 2010</t>
+  </si>
+  <si>
+    <t>Año 2011</t>
+  </si>
+  <si>
+    <t>Año 2012</t>
+  </si>
+  <si>
+    <t>Año 2013</t>
+  </si>
+  <si>
+    <t>Año 2014</t>
+  </si>
+  <si>
+    <t>Año 2015</t>
+  </si>
+  <si>
+    <t>Año 2016</t>
+  </si>
+  <si>
+    <t>Año 2017</t>
+  </si>
+  <si>
+    <t>Año 2018</t>
+  </si>
+  <si>
+    <t>Año 2019</t>
+  </si>
+  <si>
+    <t>Año 2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -553,28 +548,28 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4F55BB0D-442C-45F4-AB72-7A65C9E3F1B4}" name="Tabla1_2" displayName="Tabla1_2" ref="A1:P167" tableType="queryTable" totalsRowShown="0">
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{ECA58EF8-CAB4-41DE-86E4-B6888F8D3203}" uniqueName="1" name="ID_SEXO" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{92B1F9E9-DCD4-4898-90FF-5A986C081E9F}" uniqueName="2" name="SEXO" queryTableFieldId="2" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{92B1F9E9-DCD4-4898-90FF-5A986C081E9F}" uniqueName="2" name="Sexo" queryTableFieldId="2" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{8D850250-41B3-489D-845C-B24157F06CA8}" uniqueName="3" name="CODIGO_ISO" queryTableFieldId="3" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{53B6C04A-B8B4-45E5-90DB-E442DC6B217C}" uniqueName="4" name="PAÍS_DE_NACIONALIDAD" queryTableFieldId="4" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{98865DED-259A-430B-AFDF-50BB16A753F4}" uniqueName="5" name="ESTADO" queryTableFieldId="5" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{D180FB96-0635-4BF8-BD55-8E56D6035CB0}" uniqueName="6" name="AÑO 2010" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{825E82D9-E3A2-4C3D-9275-4FDDA4CEC9BC}" uniqueName="7" name="AÑO 2011" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{FC90B570-797C-46EE-BC3F-08B5CA90FC6E}" uniqueName="8" name="AÑO 2012" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{E97DE7B9-58BC-4DF5-96AE-FEF01489B749}" uniqueName="9" name="AÑO 2013" queryTableFieldId="9"/>
-    <tableColumn id="10" xr3:uid="{6BA6FBAC-E618-49FB-8792-D7A927B26E95}" uniqueName="10" name="AÑO 2014" queryTableFieldId="10"/>
-    <tableColumn id="11" xr3:uid="{B00F62C9-B377-4C60-A8BC-CC86C95C96D2}" uniqueName="11" name="AÑO 2015" queryTableFieldId="11"/>
-    <tableColumn id="12" xr3:uid="{748F3CF8-402F-4F38-891E-98D67D01AA83}" uniqueName="12" name="AÑO 2016" queryTableFieldId="12"/>
-    <tableColumn id="13" xr3:uid="{1015B748-75F1-403A-A464-9B7670174BE9}" uniqueName="13" name="AÑO 2017" queryTableFieldId="13"/>
-    <tableColumn id="14" xr3:uid="{98E93927-D6D0-4921-BD72-A1306AD8DC2A}" uniqueName="14" name="AÑO 2018" queryTableFieldId="14"/>
-    <tableColumn id="15" xr3:uid="{85051978-1F04-4333-8503-D39D84A5B167}" uniqueName="15" name="AÑO 2019" queryTableFieldId="15"/>
-    <tableColumn id="16" xr3:uid="{7D723C87-F722-4188-B987-5879D7356008}" uniqueName="16" name="AÑO 2020" queryTableFieldId="16"/>
+    <tableColumn id="4" xr3:uid="{53B6C04A-B8B4-45E5-90DB-E442DC6B217C}" uniqueName="4" name="País de Nacionalidad" queryTableFieldId="4" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{98865DED-259A-430B-AFDF-50BB16A753F4}" uniqueName="5" name="Estado" queryTableFieldId="5" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{D180FB96-0635-4BF8-BD55-8E56D6035CB0}" uniqueName="6" name="Año 2010" queryTableFieldId="6"/>
+    <tableColumn id="7" xr3:uid="{825E82D9-E3A2-4C3D-9275-4FDDA4CEC9BC}" uniqueName="7" name="Año 2011" queryTableFieldId="7"/>
+    <tableColumn id="8" xr3:uid="{FC90B570-797C-46EE-BC3F-08B5CA90FC6E}" uniqueName="8" name="Año 2012" queryTableFieldId="8"/>
+    <tableColumn id="9" xr3:uid="{E97DE7B9-58BC-4DF5-96AE-FEF01489B749}" uniqueName="9" name="Año 2013" queryTableFieldId="9"/>
+    <tableColumn id="10" xr3:uid="{6BA6FBAC-E618-49FB-8792-D7A927B26E95}" uniqueName="10" name="Año 2014" queryTableFieldId="10"/>
+    <tableColumn id="11" xr3:uid="{B00F62C9-B377-4C60-A8BC-CC86C95C96D2}" uniqueName="11" name="Año 2015" queryTableFieldId="11"/>
+    <tableColumn id="12" xr3:uid="{748F3CF8-402F-4F38-891E-98D67D01AA83}" uniqueName="12" name="Año 2016" queryTableFieldId="12"/>
+    <tableColumn id="13" xr3:uid="{1015B748-75F1-403A-A464-9B7670174BE9}" uniqueName="13" name="Año 2017" queryTableFieldId="13"/>
+    <tableColumn id="14" xr3:uid="{98E93927-D6D0-4921-BD72-A1306AD8DC2A}" uniqueName="14" name="Año 2018" queryTableFieldId="14"/>
+    <tableColumn id="15" xr3:uid="{85051978-1F04-4333-8503-D39D84A5B167}" uniqueName="15" name="Año 2019" queryTableFieldId="15"/>
+    <tableColumn id="16" xr3:uid="{7D723C87-F722-4188-B987-5879D7356008}" uniqueName="16" name="Año 2020" queryTableFieldId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -873,10 +868,10 @@
   <dimension ref="A1:P167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F1" sqref="F1:P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
@@ -886,521 +881,521 @@
     <col min="6" max="16" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N1" t="s">
+        <v>135</v>
+      </c>
+      <c r="O1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>6</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="D8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>6</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>2</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>2</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1436,21 +1431,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1486,21 +1481,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -1536,21 +1531,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1586,21 +1581,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1636,21 +1631,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1686,21 +1681,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1736,21 +1731,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F18">
         <v>8</v>
@@ -1786,21 +1781,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F19">
         <v>78</v>
@@ -1836,21 +1831,21 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1886,21 +1881,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1936,21 +1931,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F22">
         <v>2</v>
@@ -1986,21 +1981,21 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -2036,21 +2031,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -2086,21 +2081,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -2136,21 +2131,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -2186,21 +2181,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -2236,21 +2231,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -2286,21 +2281,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -2336,21 +2331,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -2386,21 +2381,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -2436,21 +2431,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -2486,21 +2481,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -2536,21 +2531,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -2586,21 +2581,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -2636,21 +2631,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -2686,21 +2681,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -2736,21 +2731,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -2786,21 +2781,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -2836,21 +2831,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -2886,21 +2881,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -2936,671 +2931,671 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
-        <v>0</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16">
-      <c r="A43">
-        <v>1</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C43" s="1" t="s">
+      <c r="E50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-      <c r="N43">
-        <v>0</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16">
-      <c r="A44">
-        <v>1</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" s="1" t="s">
+      <c r="E52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>2</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <v>1</v>
-      </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44">
-        <v>0</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16">
-      <c r="A45">
-        <v>1</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>1</v>
-      </c>
-      <c r="L45">
-        <v>1</v>
-      </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="N45">
-        <v>0</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16">
-      <c r="A46">
-        <v>1</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C46" s="1" t="s">
+      <c r="E53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46">
-        <v>1</v>
-      </c>
-      <c r="N46">
-        <v>0</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16">
-      <c r="A47">
-        <v>1</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C47" s="1" t="s">
+      <c r="E54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="N47">
-        <v>0</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16">
-      <c r="A48">
-        <v>1</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="N48">
-        <v>0</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16">
-      <c r="A49">
-        <v>1</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>1</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <v>1</v>
-      </c>
-      <c r="M49">
-        <v>1</v>
-      </c>
-      <c r="N49">
-        <v>0</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16">
-      <c r="A50">
-        <v>1</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50">
-        <v>0</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16">
-      <c r="A51">
-        <v>1</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51">
-        <v>0</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16">
-      <c r="A52">
-        <v>1</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>1</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52">
-        <v>0</v>
-      </c>
-      <c r="O52">
-        <v>2</v>
-      </c>
-      <c r="P52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16">
-      <c r="A53">
-        <v>1</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>1</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="M53">
-        <v>0</v>
-      </c>
-      <c r="N53">
-        <v>0</v>
-      </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16">
-      <c r="A54">
-        <v>1</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54">
-        <v>0</v>
-      </c>
-      <c r="N54">
-        <v>0</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16">
-      <c r="A55">
-        <v>1</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="E55" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -3636,21 +3631,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -3686,21 +3681,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F57">
         <v>2</v>
@@ -3736,21 +3731,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -3786,21 +3781,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -3836,21 +3831,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -3886,21 +3881,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -3936,21 +3931,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -3986,21 +3981,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -4036,21 +4031,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -4086,21 +4081,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -4136,21 +4131,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -4186,21 +4181,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -4236,21 +4231,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -4286,21 +4281,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -4336,21 +4331,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F70">
         <v>2</v>
@@ -4386,21 +4381,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -4436,21 +4431,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -4486,21 +4481,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -4536,21 +4531,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -4586,21 +4581,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -4636,21 +4631,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -4686,21 +4681,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -4736,21 +4731,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -4786,21 +4781,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -4836,21 +4831,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -4886,21 +4881,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -4936,21 +4931,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -4986,21 +4981,21 @@
         <v>36</v>
       </c>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -5036,21 +5031,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -5086,21 +5081,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -5136,21 +5131,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -5186,21 +5181,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:16">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -5236,321 +5231,321 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E88" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>2</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+      <c r="P89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>2</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+      <c r="P90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>2</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+      <c r="P91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>2</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <v>2</v>
+      </c>
+      <c r="M92">
+        <v>2</v>
+      </c>
+      <c r="N92">
+        <v>1</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+      <c r="P92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>2</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+      <c r="P93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>2</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D94" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F88">
-        <v>0</v>
-      </c>
-      <c r="G88">
-        <v>0</v>
-      </c>
-      <c r="H88">
-        <v>0</v>
-      </c>
-      <c r="I88">
-        <v>1</v>
-      </c>
-      <c r="J88">
-        <v>0</v>
-      </c>
-      <c r="K88">
-        <v>0</v>
-      </c>
-      <c r="L88">
-        <v>0</v>
-      </c>
-      <c r="M88">
-        <v>0</v>
-      </c>
-      <c r="N88">
-        <v>0</v>
-      </c>
-      <c r="O88">
-        <v>0</v>
-      </c>
-      <c r="P88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16">
-      <c r="A89">
-        <v>2</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F89">
-        <v>0</v>
-      </c>
-      <c r="G89">
-        <v>1</v>
-      </c>
-      <c r="H89">
-        <v>0</v>
-      </c>
-      <c r="I89">
-        <v>0</v>
-      </c>
-      <c r="J89">
-        <v>0</v>
-      </c>
-      <c r="K89">
-        <v>0</v>
-      </c>
-      <c r="L89">
-        <v>0</v>
-      </c>
-      <c r="M89">
-        <v>0</v>
-      </c>
-      <c r="N89">
-        <v>0</v>
-      </c>
-      <c r="O89">
-        <v>0</v>
-      </c>
-      <c r="P89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16">
-      <c r="A90">
-        <v>2</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F90">
-        <v>0</v>
-      </c>
-      <c r="G90">
-        <v>1</v>
-      </c>
-      <c r="H90">
-        <v>0</v>
-      </c>
-      <c r="I90">
-        <v>0</v>
-      </c>
-      <c r="J90">
-        <v>0</v>
-      </c>
-      <c r="K90">
-        <v>0</v>
-      </c>
-      <c r="L90">
-        <v>1</v>
-      </c>
-      <c r="M90">
-        <v>0</v>
-      </c>
-      <c r="N90">
-        <v>0</v>
-      </c>
-      <c r="O90">
-        <v>0</v>
-      </c>
-      <c r="P90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16">
-      <c r="A91">
-        <v>2</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F91">
-        <v>0</v>
-      </c>
-      <c r="G91">
-        <v>0</v>
-      </c>
-      <c r="H91">
-        <v>0</v>
-      </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
-      <c r="J91">
-        <v>1</v>
-      </c>
-      <c r="K91">
-        <v>0</v>
-      </c>
-      <c r="L91">
-        <v>0</v>
-      </c>
-      <c r="M91">
-        <v>0</v>
-      </c>
-      <c r="N91">
-        <v>0</v>
-      </c>
-      <c r="O91">
-        <v>0</v>
-      </c>
-      <c r="P91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16">
-      <c r="A92">
-        <v>2</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F92">
-        <v>0</v>
-      </c>
-      <c r="G92">
-        <v>0</v>
-      </c>
-      <c r="H92">
-        <v>0</v>
-      </c>
-      <c r="I92">
-        <v>0</v>
-      </c>
-      <c r="J92">
-        <v>0</v>
-      </c>
-      <c r="K92">
-        <v>1</v>
-      </c>
-      <c r="L92">
-        <v>2</v>
-      </c>
-      <c r="M92">
-        <v>2</v>
-      </c>
-      <c r="N92">
-        <v>1</v>
-      </c>
-      <c r="O92">
-        <v>0</v>
-      </c>
-      <c r="P92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16">
-      <c r="A93">
-        <v>2</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F93">
-        <v>0</v>
-      </c>
-      <c r="G93">
-        <v>0</v>
-      </c>
-      <c r="H93">
-        <v>0</v>
-      </c>
-      <c r="I93">
-        <v>0</v>
-      </c>
-      <c r="J93">
-        <v>0</v>
-      </c>
-      <c r="K93">
-        <v>0</v>
-      </c>
-      <c r="L93">
-        <v>1</v>
-      </c>
-      <c r="M93">
-        <v>0</v>
-      </c>
-      <c r="N93">
-        <v>0</v>
-      </c>
-      <c r="O93">
-        <v>0</v>
-      </c>
-      <c r="P93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16">
-      <c r="A94">
-        <v>2</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="E94" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F94">
         <v>2</v>
@@ -5586,21 +5581,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -5636,21 +5631,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F96">
         <v>2</v>
@@ -5686,21 +5681,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:16">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F97">
         <v>1</v>
@@ -5736,21 +5731,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F98">
         <v>1</v>
@@ -5786,21 +5781,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -5836,21 +5831,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F100">
         <v>1</v>
@@ -5886,21 +5881,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F101">
         <v>5</v>
@@ -5936,21 +5931,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:16">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F102">
         <v>101</v>
@@ -5986,21 +5981,21 @@
         <v>55</v>
       </c>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -6036,21 +6031,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:16">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -6086,21 +6081,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F105">
         <v>10</v>
@@ -6136,21 +6131,21 @@
         <v>136</v>
       </c>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -6186,21 +6181,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -6236,21 +6231,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -6286,21 +6281,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -6336,21 +6331,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:16">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>2</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -6386,21 +6381,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>2</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -6436,21 +6431,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:16">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>2</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -6486,21 +6481,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:16">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>2</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F113">
         <v>5</v>
@@ -6536,21 +6531,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:16">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>2</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -6586,21 +6581,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:16">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>2</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -6636,21 +6631,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:16">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>2</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -6686,21 +6681,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:16">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>2</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -6736,21 +6731,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:16">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>2</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -6786,21 +6781,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:16">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>2</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -6836,21 +6831,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:16">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>2</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -6886,21 +6881,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:16">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>2</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F121">
         <v>1</v>
@@ -6936,521 +6931,521 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:16">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>2</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C122" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+      <c r="O122">
+        <v>0</v>
+      </c>
+      <c r="P122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>2</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <v>0</v>
+      </c>
+      <c r="O123">
+        <v>0</v>
+      </c>
+      <c r="P123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>2</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <v>0</v>
+      </c>
+      <c r="O124">
+        <v>0</v>
+      </c>
+      <c r="P124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>2</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>1</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>2</v>
+      </c>
+      <c r="O125">
+        <v>0</v>
+      </c>
+      <c r="P125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>2</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <v>1</v>
+      </c>
+      <c r="O126">
+        <v>1</v>
+      </c>
+      <c r="P126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>2</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127">
+        <v>0</v>
+      </c>
+      <c r="O127">
+        <v>0</v>
+      </c>
+      <c r="P127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>2</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128">
+        <v>0</v>
+      </c>
+      <c r="N128">
+        <v>0</v>
+      </c>
+      <c r="O128">
+        <v>0</v>
+      </c>
+      <c r="P128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>2</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129">
+        <v>1</v>
+      </c>
+      <c r="N129">
+        <v>0</v>
+      </c>
+      <c r="O129">
+        <v>0</v>
+      </c>
+      <c r="P129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>2</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130">
+        <v>0</v>
+      </c>
+      <c r="O130">
+        <v>0</v>
+      </c>
+      <c r="P130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>2</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C131" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="D131" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E122" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F122">
-        <v>0</v>
-      </c>
-      <c r="G122">
-        <v>0</v>
-      </c>
-      <c r="H122">
-        <v>0</v>
-      </c>
-      <c r="I122">
-        <v>0</v>
-      </c>
-      <c r="J122">
-        <v>0</v>
-      </c>
-      <c r="K122">
-        <v>0</v>
-      </c>
-      <c r="L122">
-        <v>0</v>
-      </c>
-      <c r="M122">
-        <v>0</v>
-      </c>
-      <c r="N122">
-        <v>0</v>
-      </c>
-      <c r="O122">
-        <v>0</v>
-      </c>
-      <c r="P122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:16">
-      <c r="A123">
-        <v>2</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F123">
-        <v>0</v>
-      </c>
-      <c r="G123">
-        <v>0</v>
-      </c>
-      <c r="H123">
-        <v>0</v>
-      </c>
-      <c r="I123">
-        <v>0</v>
-      </c>
-      <c r="J123">
-        <v>1</v>
-      </c>
-      <c r="K123">
-        <v>0</v>
-      </c>
-      <c r="L123">
-        <v>0</v>
-      </c>
-      <c r="M123">
-        <v>0</v>
-      </c>
-      <c r="N123">
-        <v>0</v>
-      </c>
-      <c r="O123">
-        <v>0</v>
-      </c>
-      <c r="P123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:16">
-      <c r="A124">
-        <v>2</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C124" s="1" t="s">
+      <c r="E131" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>1</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131">
+        <v>2</v>
+      </c>
+      <c r="N131">
+        <v>0</v>
+      </c>
+      <c r="O131">
+        <v>0</v>
+      </c>
+      <c r="P131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>2</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C132" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D124" s="1" t="s">
+      <c r="D132" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E124" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F124">
-        <v>0</v>
-      </c>
-      <c r="G124">
-        <v>0</v>
-      </c>
-      <c r="H124">
-        <v>0</v>
-      </c>
-      <c r="I124">
-        <v>0</v>
-      </c>
-      <c r="J124">
-        <v>0</v>
-      </c>
-      <c r="K124">
-        <v>0</v>
-      </c>
-      <c r="L124">
-        <v>0</v>
-      </c>
-      <c r="M124">
-        <v>0</v>
-      </c>
-      <c r="N124">
-        <v>0</v>
-      </c>
-      <c r="O124">
-        <v>0</v>
-      </c>
-      <c r="P124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:16">
-      <c r="A125">
-        <v>2</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F125">
-        <v>0</v>
-      </c>
-      <c r="G125">
-        <v>0</v>
-      </c>
-      <c r="H125">
-        <v>0</v>
-      </c>
-      <c r="I125">
-        <v>0</v>
-      </c>
-      <c r="J125">
-        <v>0</v>
-      </c>
-      <c r="K125">
-        <v>0</v>
-      </c>
-      <c r="L125">
-        <v>1</v>
-      </c>
-      <c r="M125">
-        <v>0</v>
-      </c>
-      <c r="N125">
-        <v>2</v>
-      </c>
-      <c r="O125">
-        <v>0</v>
-      </c>
-      <c r="P125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:16">
-      <c r="A126">
-        <v>2</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F126">
-        <v>1</v>
-      </c>
-      <c r="G126">
-        <v>0</v>
-      </c>
-      <c r="H126">
-        <v>0</v>
-      </c>
-      <c r="I126">
-        <v>0</v>
-      </c>
-      <c r="J126">
-        <v>0</v>
-      </c>
-      <c r="K126">
-        <v>0</v>
-      </c>
-      <c r="L126">
-        <v>0</v>
-      </c>
-      <c r="M126">
-        <v>0</v>
-      </c>
-      <c r="N126">
-        <v>1</v>
-      </c>
-      <c r="O126">
-        <v>1</v>
-      </c>
-      <c r="P126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:16">
-      <c r="A127">
-        <v>2</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F127">
-        <v>0</v>
-      </c>
-      <c r="G127">
-        <v>0</v>
-      </c>
-      <c r="H127">
-        <v>0</v>
-      </c>
-      <c r="I127">
-        <v>0</v>
-      </c>
-      <c r="J127">
-        <v>0</v>
-      </c>
-      <c r="K127">
-        <v>0</v>
-      </c>
-      <c r="L127">
-        <v>0</v>
-      </c>
-      <c r="M127">
-        <v>0</v>
-      </c>
-      <c r="N127">
-        <v>0</v>
-      </c>
-      <c r="O127">
-        <v>0</v>
-      </c>
-      <c r="P127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:16">
-      <c r="A128">
-        <v>2</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F128">
-        <v>0</v>
-      </c>
-      <c r="G128">
-        <v>0</v>
-      </c>
-      <c r="H128">
-        <v>0</v>
-      </c>
-      <c r="I128">
-        <v>0</v>
-      </c>
-      <c r="J128">
-        <v>0</v>
-      </c>
-      <c r="K128">
-        <v>0</v>
-      </c>
-      <c r="L128">
-        <v>0</v>
-      </c>
-      <c r="M128">
-        <v>0</v>
-      </c>
-      <c r="N128">
-        <v>0</v>
-      </c>
-      <c r="O128">
-        <v>0</v>
-      </c>
-      <c r="P128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:16">
-      <c r="A129">
-        <v>2</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F129">
-        <v>0</v>
-      </c>
-      <c r="G129">
-        <v>0</v>
-      </c>
-      <c r="H129">
-        <v>0</v>
-      </c>
-      <c r="I129">
-        <v>0</v>
-      </c>
-      <c r="J129">
-        <v>0</v>
-      </c>
-      <c r="K129">
-        <v>0</v>
-      </c>
-      <c r="L129">
-        <v>0</v>
-      </c>
-      <c r="M129">
-        <v>1</v>
-      </c>
-      <c r="N129">
-        <v>0</v>
-      </c>
-      <c r="O129">
-        <v>0</v>
-      </c>
-      <c r="P129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:16">
-      <c r="A130">
-        <v>2</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F130">
-        <v>0</v>
-      </c>
-      <c r="G130">
-        <v>0</v>
-      </c>
-      <c r="H130">
-        <v>0</v>
-      </c>
-      <c r="I130">
-        <v>1</v>
-      </c>
-      <c r="J130">
-        <v>0</v>
-      </c>
-      <c r="K130">
-        <v>0</v>
-      </c>
-      <c r="L130">
-        <v>0</v>
-      </c>
-      <c r="M130">
-        <v>0</v>
-      </c>
-      <c r="N130">
-        <v>0</v>
-      </c>
-      <c r="O130">
-        <v>0</v>
-      </c>
-      <c r="P130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:16">
-      <c r="A131">
-        <v>2</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F131">
-        <v>0</v>
-      </c>
-      <c r="G131">
-        <v>1</v>
-      </c>
-      <c r="H131">
-        <v>0</v>
-      </c>
-      <c r="I131">
-        <v>0</v>
-      </c>
-      <c r="J131">
-        <v>0</v>
-      </c>
-      <c r="K131">
-        <v>0</v>
-      </c>
-      <c r="L131">
-        <v>0</v>
-      </c>
-      <c r="M131">
-        <v>2</v>
-      </c>
-      <c r="N131">
-        <v>0</v>
-      </c>
-      <c r="O131">
-        <v>0</v>
-      </c>
-      <c r="P131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:16">
-      <c r="A132">
-        <v>2</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="E132" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -7486,21 +7481,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:16">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>2</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F133">
         <v>1</v>
@@ -7536,21 +7531,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:16">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>2</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F134">
         <v>0</v>
@@ -7586,21 +7581,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:16">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>2</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -7636,21 +7631,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:16">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>2</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -7686,21 +7681,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:16">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>2</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -7736,21 +7731,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:16">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>2</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F138">
         <v>0</v>
@@ -7786,21 +7781,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:16">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>2</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F139">
         <v>0</v>
@@ -7836,21 +7831,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:16">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>2</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F140">
         <v>4</v>
@@ -7886,21 +7881,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:16">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>2</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F141">
         <v>0</v>
@@ -7936,21 +7931,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:16">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>2</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F142">
         <v>0</v>
@@ -7986,21 +7981,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:16">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>2</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F143">
         <v>0</v>
@@ -8036,21 +8031,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:16">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>2</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F144">
         <v>0</v>
@@ -8086,21 +8081,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:16">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>2</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F145">
         <v>0</v>
@@ -8136,21 +8131,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:16">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>2</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F146">
         <v>0</v>
@@ -8186,21 +8181,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:16">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>2</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F147">
         <v>0</v>
@@ -8236,21 +8231,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:16">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>2</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F148">
         <v>4</v>
@@ -8286,21 +8281,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:16">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>2</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F149">
         <v>0</v>
@@ -8336,21 +8331,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:16">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>2</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F150">
         <v>0</v>
@@ -8386,21 +8381,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:16">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>2</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F151">
         <v>0</v>
@@ -8436,21 +8431,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:16">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>2</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F152">
         <v>0</v>
@@ -8486,21 +8481,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:16">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>2</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F153">
         <v>0</v>
@@ -8536,21 +8531,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:16">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>2</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F154">
         <v>0</v>
@@ -8586,21 +8581,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:16">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>2</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F155">
         <v>0</v>
@@ -8636,21 +8631,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:16">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>2</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F156">
         <v>0</v>
@@ -8686,21 +8681,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:16">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>2</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F157">
         <v>0</v>
@@ -8736,21 +8731,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:16">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>2</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F158">
         <v>0</v>
@@ -8786,21 +8781,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:16">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>2</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F159">
         <v>0</v>
@@ -8836,21 +8831,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:16">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>2</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F160">
         <v>0</v>
@@ -8886,21 +8881,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:16">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>2</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F161">
         <v>0</v>
@@ -8936,21 +8931,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:16">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>2</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F162">
         <v>1</v>
@@ -8986,21 +8981,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:16">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>2</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F163">
         <v>0</v>
@@ -9036,21 +9031,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:16">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>2</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F164">
         <v>0</v>
@@ -9086,21 +9081,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:16">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>2</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F165">
         <v>0</v>
@@ -9136,21 +9131,21 @@
         <v>48</v>
       </c>
     </row>
-    <row r="166" spans="1:16">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>2</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F166">
         <v>0</v>
@@ -9186,21 +9181,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:16">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>2</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F167">
         <v>0</v>
@@ -9237,6 +9232,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -9248,5 +9244,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F83ED48A-C829-4DC6-A7CE-848F72729157}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F83ED48A-C829-4DC6-A7CE-848F72729157}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/DataMashup"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Migración/25.3.xlsx
+++ b/Migración/25.3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\Tablas Madre\Migración\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Migración\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79A0776-618E-4A77-A69D-375F2A7736A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34D50FE-8920-457B-9300-D13671F1DC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -546,6 +546,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4F55BB0D-442C-45F4-AB72-7A65C9E3F1B4}" name="Tabla1_2" displayName="Tabla1_2" ref="A1:P167" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:P167" xr:uid="{4F55BB0D-442C-45F4-AB72-7A65C9E3F1B4}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{ECA58EF8-CAB4-41DE-86E4-B6888F8D3203}" uniqueName="1" name="ID_SEXO" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{92B1F9E9-DCD4-4898-90FF-5A986C081E9F}" uniqueName="2" name="Sexo" queryTableFieldId="2" dataDxfId="3"/>
@@ -868,7 +869,7 @@
   <dimension ref="A1:P167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:P1"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Migración/25.3.xlsx
+++ b/Migración/25.3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Migración\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34D50FE-8920-457B-9300-D13671F1DC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D2112D-6484-424E-A933-CACF0C8D19A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,15 @@
     <definedName name="DatosExternos_1" localSheetId="0" hidden="1">Solicitantes_y_Refugiados!$A$1:$P$167</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -869,7 +878,7 @@
   <dimension ref="A1:P167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
